--- a/grille_de_tarif.xlsx
+++ b/grille_de_tarif.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>IDpol</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>prediction_freq</t>
+  </si>
+  <si>
+    <t>surprime</t>
+  </si>
+  <si>
+    <t>prime_annuelle</t>
   </si>
 </sst>
 </file>
@@ -460,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -475,7 +481,7 @@
     <col min="16" max="16" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,10 +528,16 @@
         <v>35</v>
       </c>
       <c r="P1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
+      <c r="R1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2222</v>
       </c>
@@ -572,10 +584,17 @@
         <v>0.18440220670520099</v>
       </c>
       <c r="P2">
+        <v>60.34</v>
+      </c>
+      <c r="Q2">
         <v>296.32389906148398</v>
       </c>
+      <c r="R2">
+        <f>Q2+P2</f>
+        <v>356.66389906148402</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>24992</v>
       </c>
@@ -622,10 +641,17 @@
         <v>0.22749667482326799</v>
       </c>
       <c r="P3">
+        <v>60.34</v>
+      </c>
+      <c r="Q3">
         <v>339.048029004331</v>
       </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R10" si="0">Q3+P3</f>
+        <v>399.38802900433097</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>30080</v>
       </c>
@@ -672,10 +698,17 @@
         <v>7.3458370863952197E-2</v>
       </c>
       <c r="P4">
+        <v>60.34</v>
+      </c>
+      <c r="Q4">
         <v>100.77272480990899</v>
       </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>161.112724809909</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>29567</v>
       </c>
@@ -722,10 +755,17 @@
         <v>3.3662362317579297E-2</v>
       </c>
       <c r="P5">
+        <v>60.34</v>
+      </c>
+      <c r="Q5">
         <v>50.1552894429962</v>
       </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>110.49528944299621</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -772,10 +812,17 @@
         <v>0.13488106071852801</v>
       </c>
       <c r="P6">
+        <v>60.34</v>
+      </c>
+      <c r="Q6">
         <v>187.97520703293</v>
       </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>248.31520703293</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>816</v>
       </c>
@@ -822,10 +869,17 @@
         <v>0.13704674374258</v>
       </c>
       <c r="P7">
+        <v>60.34</v>
+      </c>
+      <c r="Q7">
         <v>202.36865191204501</v>
       </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>262.70865191204501</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>141668</v>
       </c>
@@ -872,10 +926,17 @@
         <v>0.18966953935223199</v>
       </c>
       <c r="P8">
+        <v>60.34</v>
+      </c>
+      <c r="Q8">
         <v>313.86295958198502</v>
       </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>374.20295958198506</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>56277</v>
       </c>
@@ -922,10 +983,17 @@
         <v>0.255710430969805</v>
       </c>
       <c r="P9">
+        <v>60.34</v>
+      </c>
+      <c r="Q9">
         <v>356.468455104763</v>
       </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>416.80845510476297</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>76632</v>
       </c>
@@ -972,7 +1040,14 @@
         <v>6.5054784371846294E-2</v>
       </c>
       <c r="P10">
+        <v>60.34</v>
+      </c>
+      <c r="Q10">
         <v>121.85807770308099</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>182.198077703081</v>
       </c>
     </row>
   </sheetData>
